--- a/InputData/elec/DCpUC/Decommissioning Cost per Unit Cap.xlsx
+++ b/InputData/elec/DCpUC/Decommissioning Cost per Unit Cap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\DCpUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\DCpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>DCpUC Decommissioning Cost per Unit Capacity</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Decommissioning Cost ($/MW)</t>
+  </si>
+  <si>
+    <t>In the India EPS, the geothermal plant type is repurposed as pumped hydro capacity.</t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +220,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -255,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -272,6 +282,10 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -554,23 +568,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="98" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,102 +592,102 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="4">
         <v>2006</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.95661376543184151</v>
       </c>
@@ -681,12 +695,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>1.1755965181771633</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -706,14 +725,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.265625" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -724,7 +743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -736,7 +755,7 @@
         <v>202802.1182715504</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -748,7 +767,7 @@
         <v>111923.81055552546</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -760,7 +779,7 @@
         <v>89921.693950593108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -772,7 +791,7 @@
         <v>54526.984629614963</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -784,7 +803,7 @@
         <v>48787.302037023917</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -796,7 +815,7 @@
         <v>29655.026728387085</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -808,7 +827,7 @@
         <v>14349.206481477622</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -819,7 +838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -831,7 +850,7 @@
         <v>810251.85932076978</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -843,7 +862,7 @@
         <v>671542.86333315272</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -856,14 +875,14 @@
         <v>740897.3613269612</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -871,7 +890,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -879,7 +898,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -888,7 +907,7 @@
         <v>556213.01775147929</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -910,16 +929,16 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -927,7 +946,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -936,7 +955,7 @@
         <v>111923.81055552546</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -945,7 +964,7 @@
         <v>14349.206481477622</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -954,7 +973,7 @@
         <v>740897.3613269612</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -963,7 +982,7 @@
         <v>653882.08703345177</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -972,7 +991,7 @@
         <v>48787.302037023917</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -981,7 +1000,7 @@
         <v>54526.984629614963</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -990,7 +1009,7 @@
         <v>89921.693950593108</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -999,16 +1018,16 @@
         <v>111923.81055552546</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9">
-        <f>Data!C6</f>
-        <v>48787.302037023917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <f>B5</f>
+        <v>653882.08703345177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1036,7 @@
         <v>29655.026728387085</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1045,7 @@
         <v>14349.206481477622</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1035,7 +1054,7 @@
         <v>111923.81055552546</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1044,7 +1063,7 @@
         <v>202802.1182715504</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1053,7 +1072,7 @@
         <v>29655.026728387085</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1062,7 +1081,7 @@
         <v>29655.026728387085</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>52</v>
       </c>

--- a/InputData/elec/DCpUC/Decommissioning Cost per Unit Cap.xlsx
+++ b/InputData/elec/DCpUC/Decommissioning Cost per Unit Cap.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>DCpUC Decommissioning Cost per Unit Capacity</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>In the India EPS, the geothermal plant type is repurposed as pumped hydro capacity.</t>
+  </si>
+  <si>
+    <t>India:US GDP per capita adjustment, see InputData/scaling-factors.xlsx</t>
   </si>
 </sst>
 </file>
@@ -568,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A32" sqref="A32:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -706,6 +709,16 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>3.2347480211350491E-2</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +942,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -951,8 +964,8 @@
         <v>3</v>
       </c>
       <c r="B2" s="6">
-        <f>Data!C3</f>
-        <v>111923.81055552546</v>
+        <f>Data!C3*About!$A$33</f>
+        <v>3620.4532471238008</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -960,8 +973,8 @@
         <v>4</v>
       </c>
       <c r="B3" s="6">
-        <f>Data!C8</f>
-        <v>14349.206481477622</v>
+        <f>Data!C8*About!$A$33</f>
+        <v>464.16067270817956</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -969,8 +982,8 @@
         <v>5</v>
       </c>
       <c r="B4" s="6">
-        <f>Data!C13</f>
-        <v>740897.3613269612</v>
+        <f>Data!C13*About!$A$33</f>
+        <v>23966.162734165671</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -978,8 +991,8 @@
         <v>6</v>
       </c>
       <c r="B5" s="6">
-        <f>Data!B19</f>
-        <v>653882.08703345177</v>
+        <f>Data!B19*About!$A$33</f>
+        <v>21151.437870871141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -987,8 +1000,8 @@
         <v>7</v>
       </c>
       <c r="B6" s="6">
-        <f>Data!C6</f>
-        <v>48787.302037023917</v>
+        <f>Data!C6*About!$A$33</f>
+        <v>1578.1462872078107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -996,8 +1009,8 @@
         <v>8</v>
       </c>
       <c r="B7" s="6">
-        <f>Data!C5</f>
-        <v>54526.984629614963</v>
+        <f>Data!C5*About!$A$33</f>
+        <v>1763.8105562910823</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -1005,8 +1018,8 @@
         <v>9</v>
       </c>
       <c r="B8" s="6">
-        <f>Data!C4</f>
-        <v>89921.693950593108</v>
+        <f>Data!C4*About!$A$33</f>
+        <v>2908.7402156379258</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -1014,8 +1027,8 @@
         <v>10</v>
       </c>
       <c r="B9" s="9">
-        <f>Data!C3</f>
-        <v>111923.81055552546</v>
+        <f>Data!C3*About!$A$33</f>
+        <v>3620.4532471238008</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -1023,8 +1036,8 @@
         <v>11</v>
       </c>
       <c r="B10" s="11">
-        <f>B5</f>
-        <v>653882.08703345177</v>
+        <f>B5*About!$A$33</f>
+        <v>684.19571796961361</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -1032,8 +1045,8 @@
         <v>12</v>
       </c>
       <c r="B11" s="6">
-        <f>Data!C7</f>
-        <v>29655.026728387085</v>
+        <f>Data!C7*About!$A$33</f>
+        <v>959.26539026357113</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -1041,8 +1054,8 @@
         <v>13</v>
       </c>
       <c r="B12" s="6">
-        <f>Data!C8</f>
-        <v>14349.206481477622</v>
+        <f>Data!C8*About!$A$33</f>
+        <v>464.16067270817956</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -1050,8 +1063,8 @@
         <v>14</v>
       </c>
       <c r="B13" s="6">
-        <f>Data!C3</f>
-        <v>111923.81055552546</v>
+        <f>Data!C3*About!$A$33</f>
+        <v>3620.4532471238008</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -1059,8 +1072,8 @@
         <v>15</v>
       </c>
       <c r="B14" s="6">
-        <f>Data!C2</f>
-        <v>202802.1182715504</v>
+        <f>Data!C2*About!$A$33</f>
+        <v>6560.137507608938</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -1068,8 +1081,8 @@
         <v>50</v>
       </c>
       <c r="B15" s="6">
-        <f>B11</f>
-        <v>29655.026728387085</v>
+        <f>B11*About!$A$33</f>
+        <v>31.029818228984272</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -1077,8 +1090,8 @@
         <v>51</v>
       </c>
       <c r="B16" s="6">
-        <f>B11</f>
-        <v>29655.026728387085</v>
+        <f>B11*About!$A$33</f>
+        <v>31.029818228984272</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -1086,8 +1099,8 @@
         <v>52</v>
       </c>
       <c r="B17" s="6">
-        <f>B9</f>
-        <v>111923.81055552546</v>
+        <f>B9*About!$A$33</f>
+        <v>117.11253976745677</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/DCpUC/Decommissioning Cost per Unit Cap.xlsx
+++ b/InputData/elec/DCpUC/Decommissioning Cost per Unit Cap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\DCpUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\elec\DCpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -718,7 +718,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>3.2347480211350491E-2</v>
+        <v>3.878298458735905E-2</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +965,7 @@
       </c>
       <c r="B2" s="6">
         <f>Data!C3*About!$A$33</f>
-        <v>3620.4532471238008</v>
+        <v>4340.7394197334379</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -974,7 +974,7 @@
       </c>
       <c r="B3" s="6">
         <f>Data!C8*About!$A$33</f>
-        <v>464.16067270817956</v>
+        <v>556.50505381197922</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -983,7 +983,7 @@
       </c>
       <c r="B4" s="6">
         <f>Data!C13*About!$A$33</f>
-        <v>23966.162734165671</v>
+        <v>28734.210945158524</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -992,7 +992,7 @@
       </c>
       <c r="B5" s="6">
         <f>Data!B19*About!$A$33</f>
-        <v>21151.437870871141</v>
+        <v>25359.498903368527</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B6" s="6">
         <f>Data!C6*About!$A$33</f>
-        <v>1578.1462872078107</v>
+        <v>1892.1171829607295</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B7" s="6">
         <f>Data!C5*About!$A$33</f>
-        <v>1763.8105562910823</v>
+        <v>2114.719204485521</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B8" s="6">
         <f>Data!C4*About!$A$33</f>
-        <v>2908.7402156379258</v>
+        <v>3487.43167055507</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B9" s="9">
         <f>Data!C3*About!$A$33</f>
-        <v>3620.4532471238008</v>
+        <v>4340.7394197334379</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B10" s="11">
         <f>B5*About!$A$33</f>
-        <v>684.19571796961361</v>
+        <v>983.51705511249031</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B11" s="6">
         <f>Data!C7*About!$A$33</f>
-        <v>959.26539026357113</v>
+        <v>1150.110444544757</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B12" s="6">
         <f>Data!C8*About!$A$33</f>
-        <v>464.16067270817956</v>
+        <v>556.50505381197922</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B13" s="6">
         <f>Data!C3*About!$A$33</f>
-        <v>3620.4532471238008</v>
+        <v>4340.7394197334379</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B14" s="6">
         <f>Data!C2*About!$A$33</f>
-        <v>6560.137507608938</v>
+        <v>7865.2714272093062</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B15" s="6">
         <f>B11*About!$A$33</f>
-        <v>31.029818228984272</v>
+        <v>44.604715644539979</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B16" s="6">
         <f>B11*About!$A$33</f>
-        <v>31.029818228984272</v>
+        <v>44.604715644539979</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B17" s="6">
         <f>B9*About!$A$33</f>
-        <v>117.11253976745677</v>
+        <v>168.3468300132638</v>
       </c>
     </row>
   </sheetData>
